--- a/teaching/traditional_assets/database/data/oman/oman_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/oman/oman_investments_asset_management.xlsx
@@ -591,40 +591,40 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.6682389937106918</v>
+        <v>1.068493150684932</v>
       </c>
       <c r="H2">
-        <v>0.6682389937106918</v>
+        <v>1.068493150684932</v>
       </c>
       <c r="I2">
-        <v>0.800314465408805</v>
+        <v>0.6061643835616438</v>
       </c>
       <c r="J2">
-        <v>0.800314465408805</v>
+        <v>0.6061643835616438</v>
       </c>
       <c r="K2">
-        <v>2.08</v>
+        <v>-0.925</v>
       </c>
       <c r="L2">
-        <v>0.3270440251572327</v>
+        <v>-0.3167808219178083</v>
       </c>
       <c r="M2">
-        <v>5.2</v>
+        <v>3.12</v>
       </c>
       <c r="N2">
-        <v>0.1220657276995305</v>
+        <v>0.09842271293375394</v>
       </c>
       <c r="O2">
-        <v>2.5</v>
+        <v>-3.372972972972973</v>
       </c>
       <c r="P2">
-        <v>5.2</v>
+        <v>3.12</v>
       </c>
       <c r="Q2">
-        <v>0.1220657276995305</v>
+        <v>0.09842271293375394</v>
       </c>
       <c r="R2">
-        <v>2.5</v>
+        <v>-3.372972972972973</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.47</v>
+        <v>0.364</v>
       </c>
       <c r="V2">
-        <v>0.03450704225352112</v>
+        <v>0.01148264984227129</v>
       </c>
       <c r="W2">
-        <v>0.02418604651162791</v>
+        <v>-0.01089517078916372</v>
       </c>
       <c r="X2">
-        <v>0.1000243912133266</v>
+        <v>0.1122247688927248</v>
       </c>
       <c r="Y2">
-        <v>-0.0758383447016987</v>
+        <v>-0.1231199396818885</v>
       </c>
       <c r="Z2">
-        <v>0.04790960451977402</v>
+        <v>0.02254304022234231</v>
       </c>
       <c r="AA2">
-        <v>0.03834274952919021</v>
+        <v>0.01366478807998147</v>
       </c>
       <c r="AB2">
-        <v>0.07405625540459296</v>
+        <v>0.07081857879852553</v>
       </c>
       <c r="AC2">
-        <v>-0.03571350587540275</v>
+        <v>-0.05715379071854406</v>
       </c>
       <c r="AD2">
-        <v>46.1</v>
+        <v>47.8</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>46.1</v>
+        <v>47.8</v>
       </c>
       <c r="AG2">
-        <v>44.63</v>
+        <v>47.436</v>
       </c>
       <c r="AH2">
-        <v>0.5197294250281849</v>
+        <v>0.6012578616352201</v>
       </c>
       <c r="AI2">
-        <v>0.3519083969465649</v>
+        <v>0.3740219092331769</v>
       </c>
       <c r="AJ2">
-        <v>0.5116359050785281</v>
+        <v>0.5994237767893248</v>
       </c>
       <c r="AK2">
-        <v>0.344553385316143</v>
+        <v>0.372233905646756</v>
       </c>
       <c r="AL2">
-        <v>2.95</v>
+        <v>2.54</v>
       </c>
       <c r="AM2">
-        <v>2.95</v>
+        <v>2.54</v>
       </c>
       <c r="AN2">
-        <v>9.056974459724952</v>
+        <v>26.85393258426966</v>
       </c>
       <c r="AO2">
-        <v>1.725423728813559</v>
+        <v>0.6968503937007874</v>
       </c>
       <c r="AP2">
-        <v>8.768172888015718</v>
+        <v>26.64943820224719</v>
       </c>
       <c r="AQ2">
-        <v>1.725423728813559</v>
+        <v>0.6968503937007874</v>
       </c>
     </row>
     <row r="3">
@@ -719,40 +719,40 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.6682389937106918</v>
+        <v>1.068493150684932</v>
       </c>
       <c r="H3">
-        <v>0.6682389937106918</v>
+        <v>1.068493150684932</v>
       </c>
       <c r="I3">
-        <v>0.800314465408805</v>
+        <v>0.6061643835616438</v>
       </c>
       <c r="J3">
-        <v>0.800314465408805</v>
+        <v>0.6061643835616438</v>
       </c>
       <c r="K3">
-        <v>2.08</v>
+        <v>-0.925</v>
       </c>
       <c r="L3">
-        <v>0.3270440251572327</v>
+        <v>-0.3167808219178083</v>
       </c>
       <c r="M3">
-        <v>5.2</v>
+        <v>3.12</v>
       </c>
       <c r="N3">
-        <v>0.1220657276995305</v>
+        <v>0.09842271293375394</v>
       </c>
       <c r="O3">
-        <v>2.5</v>
+        <v>-3.372972972972973</v>
       </c>
       <c r="P3">
-        <v>5.2</v>
+        <v>3.12</v>
       </c>
       <c r="Q3">
-        <v>0.1220657276995305</v>
+        <v>0.09842271293375394</v>
       </c>
       <c r="R3">
-        <v>2.5</v>
+        <v>-3.372972972972973</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.47</v>
+        <v>0.364</v>
       </c>
       <c r="V3">
-        <v>0.03450704225352112</v>
+        <v>0.01148264984227129</v>
       </c>
       <c r="W3">
-        <v>0.02418604651162791</v>
+        <v>-0.01089517078916372</v>
       </c>
       <c r="X3">
-        <v>0.1000243912133266</v>
+        <v>0.1122247688927248</v>
       </c>
       <c r="Y3">
-        <v>-0.0758383447016987</v>
+        <v>-0.1231199396818885</v>
       </c>
       <c r="Z3">
-        <v>0.04790960451977402</v>
+        <v>0.02254304022234231</v>
       </c>
       <c r="AA3">
-        <v>0.03834274952919021</v>
+        <v>0.01366478807998147</v>
       </c>
       <c r="AB3">
-        <v>0.07405625540459296</v>
+        <v>0.07081857879852553</v>
       </c>
       <c r="AC3">
-        <v>-0.03571350587540275</v>
+        <v>-0.05715379071854406</v>
       </c>
       <c r="AD3">
-        <v>46.1</v>
+        <v>47.8</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>46.1</v>
+        <v>47.8</v>
       </c>
       <c r="AG3">
-        <v>44.63</v>
+        <v>47.436</v>
       </c>
       <c r="AH3">
-        <v>0.5197294250281849</v>
+        <v>0.6012578616352201</v>
       </c>
       <c r="AI3">
-        <v>0.3519083969465649</v>
+        <v>0.3740219092331769</v>
       </c>
       <c r="AJ3">
-        <v>0.5116359050785281</v>
+        <v>0.5994237767893248</v>
       </c>
       <c r="AK3">
-        <v>0.344553385316143</v>
+        <v>0.372233905646756</v>
       </c>
       <c r="AL3">
-        <v>2.95</v>
+        <v>2.54</v>
       </c>
       <c r="AM3">
-        <v>2.95</v>
+        <v>2.54</v>
       </c>
       <c r="AN3">
-        <v>9.056974459724952</v>
+        <v>26.85393258426966</v>
       </c>
       <c r="AO3">
-        <v>1.725423728813559</v>
+        <v>0.6968503937007874</v>
       </c>
       <c r="AP3">
-        <v>8.768172888015718</v>
+        <v>26.64943820224719</v>
       </c>
       <c r="AQ3">
-        <v>1.725423728813559</v>
+        <v>0.6968503937007874</v>
       </c>
     </row>
   </sheetData>
